--- a/test_契約管理/已完成/test_契約管理_契約手続き一覧and全駐車場一覧.xlsx
+++ b/test_契約管理/已完成/test_契約管理_契約手続き一覧and全駐車場一覧.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="704" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="704"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7894" uniqueCount="1155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7893" uniqueCount="1155">
   <si>
     <t>項目名</t>
   </si>
@@ -5148,8 +5148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IE119"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5769,9 +5769,7 @@
       <c r="EJ55" s="151"/>
     </row>
     <row r="56" spans="1:140" s="47" customFormat="1" ht="14.25">
-      <c r="A56" s="54" t="s">
-        <v>160</v>
-      </c>
+      <c r="A56" s="54"/>
       <c r="B56" s="53" t="s">
         <v>491</v>
       </c>
@@ -40210,7 +40208,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
